--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-HealthcareService.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-HealthcareService.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-HealthcareService.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-HealthcareService.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-HealthcareService.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-HealthcareService.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3467" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3467" uniqueCount="503">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -249,6 +249,10 @@
   </si>
   <si>
     <t>The details of a healthcare service available at a location. Should only be used for clinical healthcareservices offered by a PractitionerRole or by an Organization.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>act[classCode=ACT][moodCode=DEF]</t>
@@ -1691,10 +1695,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2125,10 +2129,10 @@
         <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>72</v>
@@ -2136,10 +2140,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2150,7 +2154,7 @@
         <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>72</v>
@@ -2159,19 +2163,19 @@
         <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2221,13 +2225,13 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>72</v>
@@ -2244,10 +2248,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2258,7 +2262,7 @@
         <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>72</v>
@@ -2267,16 +2271,16 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2327,19 +2331,19 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>72</v>
@@ -2350,10 +2354,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2364,28 +2368,28 @@
         <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2435,19 +2439,19 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>72</v>
@@ -2458,10 +2462,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2472,7 +2476,7 @@
         <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>72</v>
@@ -2484,16 +2488,16 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2519,13 +2523,13 @@
         <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>72</v>
@@ -2543,19 +2547,19 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>72</v>
@@ -2566,21 +2570,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -2592,16 +2596,16 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2651,22 +2655,22 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>72</v>
@@ -2674,14 +2678,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2700,16 +2704,16 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2759,7 +2763,7 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>73</v>
@@ -2774,7 +2778,7 @@
         <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>72</v>
@@ -2782,14 +2786,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2808,16 +2812,16 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2867,7 +2871,7 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
@@ -2879,10 +2883,10 @@
         <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>72</v>
@@ -2890,14 +2894,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2910,25 +2914,25 @@
         <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>72</v>
@@ -2977,7 +2981,7 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -2989,10 +2993,10 @@
         <v>72</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>72</v>
@@ -3000,10 +3004,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3023,16 +3027,16 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3083,7 +3087,7 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
@@ -3095,21 +3099,21 @@
         <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3120,35 +3124,35 @@
         <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>72</v>
@@ -3193,33 +3197,33 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3230,7 +3234,7 @@
         <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>72</v>
@@ -3239,19 +3243,19 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3301,22 +3305,22 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>72</v>
@@ -3324,10 +3328,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3338,7 +3342,7 @@
         <v>73</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>72</v>
@@ -3350,13 +3354,13 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3407,13 +3411,13 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>72</v>
@@ -3422,7 +3426,7 @@
         <v>72</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>72</v>
@@ -3430,14 +3434,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3456,16 +3460,16 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3503,19 +3507,19 @@
         <v>72</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>73</v>
@@ -3527,10 +3531,10 @@
         <v>72</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>72</v>
@@ -3538,10 +3542,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3552,7 +3556,7 @@
         <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>72</v>
@@ -3561,19 +3565,19 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3623,22 +3627,22 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>72</v>
@@ -3646,10 +3650,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3660,7 +3664,7 @@
         <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
@@ -3669,19 +3673,19 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3707,13 +3711,13 @@
         <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>72</v>
@@ -3731,22 +3735,22 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>72</v>
@@ -3754,10 +3758,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3768,7 +3772,7 @@
         <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -3777,19 +3781,19 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3839,22 +3843,22 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>72</v>
@@ -3862,10 +3866,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3876,7 +3880,7 @@
         <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>72</v>
@@ -3888,13 +3892,13 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3945,13 +3949,13 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>72</v>
@@ -3960,7 +3964,7 @@
         <v>72</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>72</v>
@@ -3968,14 +3972,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3994,16 +3998,16 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4041,19 +4045,19 @@
         <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -4065,10 +4069,10 @@
         <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>72</v>
@@ -4076,10 +4080,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4090,31 +4094,31 @@
         <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>72</v>
@@ -4139,13 +4143,13 @@
         <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>72</v>
@@ -4163,22 +4167,22 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>72</v>
@@ -4186,10 +4190,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4200,7 +4204,7 @@
         <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>72</v>
@@ -4209,22 +4213,22 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>72</v>
@@ -4249,13 +4253,13 @@
         <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>72</v>
@@ -4273,22 +4277,22 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>72</v>
@@ -4296,10 +4300,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4310,7 +4314,7 @@
         <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -4319,22 +4323,22 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>72</v>
@@ -4347,7 +4351,7 @@
         <v>72</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>72</v>
@@ -4383,22 +4387,22 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>72</v>
@@ -4406,10 +4410,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4420,7 +4424,7 @@
         <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -4429,19 +4433,19 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4455,7 +4459,7 @@
         <v>72</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>72</v>
@@ -4491,22 +4495,22 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>72</v>
@@ -4514,10 +4518,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4528,7 +4532,7 @@
         <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -4537,16 +4541,16 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4597,22 +4601,22 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>72</v>
@@ -4620,10 +4624,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4634,7 +4638,7 @@
         <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
@@ -4643,19 +4647,19 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4705,22 +4709,22 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>72</v>
@@ -4728,10 +4732,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4742,7 +4746,7 @@
         <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>72</v>
@@ -4751,19 +4755,19 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4813,22 +4817,22 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>72</v>
@@ -4836,14 +4840,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4859,19 +4863,19 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4897,13 +4901,13 @@
         <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>72</v>
@@ -4921,7 +4925,7 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -4933,25 +4937,25 @@
         <v>72</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4967,16 +4971,16 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5003,13 +5007,13 @@
         <v>72</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>72</v>
@@ -5027,7 +5031,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -5039,10 +5043,10 @@
         <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -5050,14 +5054,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5073,16 +5077,16 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5109,13 +5113,13 @@
         <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>72</v>
@@ -5133,7 +5137,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -5145,10 +5149,10 @@
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>72</v>
@@ -5156,10 +5160,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5170,7 +5174,7 @@
         <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>72</v>
@@ -5182,13 +5186,13 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5239,13 +5243,13 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>72</v>
@@ -5254,7 +5258,7 @@
         <v>72</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>72</v>
@@ -5262,14 +5266,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5288,16 +5292,16 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5335,19 +5339,19 @@
         <v>72</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -5359,10 +5363,10 @@
         <v>72</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>72</v>
@@ -5370,10 +5374,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5393,22 +5397,22 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>72</v>
@@ -5445,19 +5449,19 @@
         <v>72</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -5469,10 +5473,10 @@
         <v>72</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -5480,13 +5484,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>72</v>
@@ -5505,22 +5509,22 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>72</v>
@@ -5545,13 +5549,13 @@
         <v>72</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>72</v>
@@ -5569,7 +5573,7 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -5581,10 +5585,10 @@
         <v>72</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -5592,10 +5596,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5606,7 +5610,7 @@
         <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>72</v>
@@ -5618,13 +5622,13 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5675,13 +5679,13 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>72</v>
@@ -5690,7 +5694,7 @@
         <v>72</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>72</v>
@@ -5698,14 +5702,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5724,16 +5728,16 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5771,19 +5775,19 @@
         <v>72</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -5795,10 +5799,10 @@
         <v>72</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>72</v>
@@ -5806,10 +5810,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5817,10 +5821,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
@@ -5829,29 +5833,29 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>72</v>
@@ -5893,22 +5897,22 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -5916,10 +5920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5930,7 +5934,7 @@
         <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>72</v>
@@ -5939,19 +5943,19 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6001,22 +6005,22 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -6024,10 +6028,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6035,10 +6039,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>72</v>
@@ -6047,20 +6051,20 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>72</v>
@@ -6109,22 +6113,22 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6132,10 +6136,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6146,7 +6150,7 @@
         <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>72</v>
@@ -6155,20 +6159,20 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>72</v>
@@ -6217,22 +6221,22 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6240,10 +6244,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6254,7 +6258,7 @@
         <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>72</v>
@@ -6263,22 +6267,22 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>72</v>
@@ -6327,22 +6331,22 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6350,13 +6354,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>72</v>
@@ -6375,22 +6379,22 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>72</v>
@@ -6415,13 +6419,13 @@
         <v>72</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>72</v>
@@ -6439,7 +6443,7 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -6451,10 +6455,10 @@
         <v>72</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6462,10 +6466,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6476,7 +6480,7 @@
         <v>73</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>72</v>
@@ -6488,13 +6492,13 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6545,13 +6549,13 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>72</v>
@@ -6560,7 +6564,7 @@
         <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -6568,14 +6572,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6594,16 +6598,16 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6641,19 +6645,19 @@
         <v>72</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -6665,10 +6669,10 @@
         <v>72</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -6676,10 +6680,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6687,10 +6691,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>72</v>
@@ -6699,29 +6703,29 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>72</v>
@@ -6763,22 +6767,22 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>72</v>
@@ -6786,10 +6790,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6800,7 +6804,7 @@
         <v>73</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>72</v>
@@ -6809,19 +6813,19 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6871,22 +6875,22 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>72</v>
@@ -6894,10 +6898,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6905,10 +6909,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>72</v>
@@ -6917,20 +6921,20 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>72</v>
@@ -6979,22 +6983,22 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -7002,10 +7006,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7016,7 +7020,7 @@
         <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>72</v>
@@ -7025,20 +7029,20 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>72</v>
@@ -7087,22 +7091,22 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -7110,10 +7114,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7124,7 +7128,7 @@
         <v>73</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>72</v>
@@ -7133,22 +7137,22 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>72</v>
@@ -7197,22 +7201,22 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7220,13 +7224,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>72</v>
@@ -7245,22 +7249,22 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>72</v>
@@ -7285,13 +7289,13 @@
         <v>72</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>72</v>
@@ -7309,7 +7313,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -7321,10 +7325,10 @@
         <v>72</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7332,10 +7336,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7346,7 +7350,7 @@
         <v>73</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>72</v>
@@ -7358,13 +7362,13 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7415,13 +7419,13 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>72</v>
@@ -7430,7 +7434,7 @@
         <v>72</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
@@ -7438,14 +7442,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7464,16 +7468,16 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7511,19 +7515,19 @@
         <v>72</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
@@ -7535,10 +7539,10 @@
         <v>72</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7546,10 +7550,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7557,10 +7561,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>72</v>
@@ -7569,29 +7573,29 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>72</v>
@@ -7633,22 +7637,22 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
@@ -7656,10 +7660,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7670,7 +7674,7 @@
         <v>73</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>72</v>
@@ -7679,19 +7683,19 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7741,22 +7745,22 @@
         <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>72</v>
@@ -7764,10 +7768,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7775,10 +7779,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>72</v>
@@ -7787,20 +7791,20 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>72</v>
@@ -7849,22 +7853,22 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -7872,10 +7876,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7886,7 +7890,7 @@
         <v>73</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>72</v>
@@ -7895,20 +7899,20 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>72</v>
@@ -7957,22 +7961,22 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
@@ -7980,10 +7984,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7994,7 +7998,7 @@
         <v>73</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>72</v>
@@ -8003,22 +8007,22 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>72</v>
@@ -8067,22 +8071,22 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
@@ -8090,13 +8094,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>72</v>
@@ -8115,22 +8119,22 @@
         <v>72</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>72</v>
@@ -8155,13 +8159,13 @@
         <v>72</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>72</v>
@@ -8179,7 +8183,7 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
@@ -8191,10 +8195,10 @@
         <v>72</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
@@ -8202,10 +8206,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8216,7 +8220,7 @@
         <v>73</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>72</v>
@@ -8228,13 +8232,13 @@
         <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8285,13 +8289,13 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>72</v>
@@ -8300,7 +8304,7 @@
         <v>72</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>72</v>
@@ -8308,14 +8312,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8334,16 +8338,16 @@
         <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8381,19 +8385,19 @@
         <v>72</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -8405,10 +8409,10 @@
         <v>72</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -8416,10 +8420,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8427,10 +8431,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>72</v>
@@ -8439,29 +8443,29 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>72</v>
@@ -8503,22 +8507,22 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -8526,10 +8530,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8540,7 +8544,7 @@
         <v>73</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>72</v>
@@ -8549,19 +8553,19 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8611,22 +8615,22 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -8634,10 +8638,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8645,10 +8649,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>72</v>
@@ -8657,20 +8661,20 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>72</v>
@@ -8719,22 +8723,22 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -8742,10 +8746,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8756,7 +8760,7 @@
         <v>73</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>72</v>
@@ -8765,20 +8769,20 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>72</v>
@@ -8827,22 +8831,22 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -8850,10 +8854,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8864,7 +8868,7 @@
         <v>73</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>72</v>
@@ -8873,22 +8877,22 @@
         <v>72</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>72</v>
@@ -8937,22 +8941,22 @@
         <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
@@ -8960,10 +8964,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8974,7 +8978,7 @@
         <v>73</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>72</v>
@@ -8983,22 +8987,22 @@
         <v>72</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>72</v>
@@ -9047,22 +9051,22 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -9070,10 +9074,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9093,16 +9097,16 @@
         <v>72</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9153,7 +9157,7 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
@@ -9165,21 +9169,21 @@
         <v>72</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9190,7 +9194,7 @@
         <v>73</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>72</v>
@@ -9199,16 +9203,16 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9259,22 +9263,22 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>72</v>
@@ -9282,10 +9286,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9296,7 +9300,7 @@
         <v>73</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>72</v>
@@ -9305,19 +9309,19 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9367,22 +9371,22 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>72</v>
@@ -9390,10 +9394,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9404,7 +9408,7 @@
         <v>73</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>72</v>
@@ -9416,13 +9420,13 @@
         <v>72</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9473,22 +9477,22 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -9496,10 +9500,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9510,7 +9514,7 @@
         <v>73</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>72</v>
@@ -9519,16 +9523,16 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9579,22 +9583,22 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -9602,10 +9606,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9628,16 +9632,16 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9687,7 +9691,7 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
@@ -9699,10 +9703,10 @@
         <v>72</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
@@ -9710,10 +9714,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9736,16 +9740,16 @@
         <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9795,7 +9799,7 @@
         <v>72</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
@@ -9807,10 +9811,10 @@
         <v>72</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
@@ -9818,10 +9822,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9844,16 +9848,16 @@
         <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9879,13 +9883,13 @@
         <v>72</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>72</v>
@@ -9903,7 +9907,7 @@
         <v>72</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>73</v>
@@ -9915,10 +9919,10 @@
         <v>72</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
@@ -9926,10 +9930,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9952,13 +9956,13 @@
         <v>72</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10009,7 +10013,7 @@
         <v>72</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>73</v>
@@ -10021,7 +10025,7 @@
         <v>72</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>72</v>
@@ -10032,10 +10036,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10046,7 +10050,7 @@
         <v>73</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>72</v>
@@ -10058,13 +10062,13 @@
         <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10115,13 +10119,13 @@
         <v>72</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>72</v>
@@ -10130,7 +10134,7 @@
         <v>72</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10138,14 +10142,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10164,16 +10168,16 @@
         <v>72</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10223,7 +10227,7 @@
         <v>72</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>73</v>
@@ -10235,10 +10239,10 @@
         <v>72</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>72</v>
@@ -10246,14 +10250,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10266,25 +10270,25 @@
         <v>72</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>72</v>
@@ -10333,7 +10337,7 @@
         <v>72</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>73</v>
@@ -10345,10 +10349,10 @@
         <v>72</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>72</v>
@@ -10356,10 +10360,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10370,7 +10374,7 @@
         <v>73</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>72</v>
@@ -10382,13 +10386,13 @@
         <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10415,10 +10419,10 @@
         <v>72</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>72</v>
@@ -10439,22 +10443,22 @@
         <v>72</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>72</v>
@@ -10462,10 +10466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10476,7 +10480,7 @@
         <v>73</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>72</v>
@@ -10488,16 +10492,16 @@
         <v>72</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10547,22 +10551,22 @@
         <v>72</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>72</v>
@@ -10570,10 +10574,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10596,16 +10600,16 @@
         <v>72</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -10631,13 +10635,13 @@
         <v>72</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>72</v>
@@ -10655,7 +10659,7 @@
         <v>72</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>73</v>
@@ -10667,10 +10671,10 @@
         <v>72</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>72</v>
@@ -10678,10 +10682,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10704,16 +10708,16 @@
         <v>72</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -10739,10 +10743,10 @@
         <v>72</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>72</v>
@@ -10763,7 +10767,7 @@
         <v>72</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>73</v>
@@ -10775,10 +10779,10 @@
         <v>72</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>72</v>
@@ -10786,10 +10790,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10812,16 +10816,16 @@
         <v>72</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10847,13 +10851,13 @@
         <v>72</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>72</v>
@@ -10871,7 +10875,7 @@
         <v>72</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>73</v>
@@ -10883,7 +10887,7 @@
         <v>72</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>72</v>
@@ -10894,10 +10898,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10920,13 +10924,13 @@
         <v>72</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10953,13 +10957,13 @@
         <v>72</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>72</v>
@@ -10977,7 +10981,7 @@
         <v>72</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>73</v>
@@ -10989,10 +10993,10 @@
         <v>72</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -11000,10 +11004,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11014,7 +11018,7 @@
         <v>73</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>72</v>
@@ -11026,13 +11030,13 @@
         <v>72</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11083,22 +11087,22 @@
         <v>72</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>72</v>
@@ -11106,10 +11110,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11132,16 +11136,16 @@
         <v>72</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11191,7 +11195,7 @@
         <v>72</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>73</v>
@@ -11203,10 +11207,10 @@
         <v>72</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -11214,10 +11218,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11228,7 +11232,7 @@
         <v>73</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>72</v>
@@ -11240,13 +11244,13 @@
         <v>72</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11297,13 +11301,13 @@
         <v>72</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>72</v>
@@ -11312,7 +11316,7 @@
         <v>72</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
@@ -11320,14 +11324,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -11346,16 +11350,16 @@
         <v>72</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11405,7 +11409,7 @@
         <v>72</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>73</v>
@@ -11417,10 +11421,10 @@
         <v>72</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>72</v>
@@ -11428,14 +11432,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11448,25 +11452,25 @@
         <v>72</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>72</v>
@@ -11515,7 +11519,7 @@
         <v>72</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>73</v>
@@ -11527,10 +11531,10 @@
         <v>72</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>72</v>
@@ -11538,10 +11542,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11564,13 +11568,13 @@
         <v>72</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11597,13 +11601,13 @@
         <v>72</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>72</v>
@@ -11621,7 +11625,7 @@
         <v>72</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>73</v>
@@ -11633,10 +11637,10 @@
         <v>72</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>72</v>
@@ -11644,10 +11648,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11658,7 +11662,7 @@
         <v>73</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>72</v>
@@ -11670,13 +11674,13 @@
         <v>72</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11727,22 +11731,22 @@
         <v>72</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>72</v>
@@ -11750,10 +11754,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11764,7 +11768,7 @@
         <v>73</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>72</v>
@@ -11776,16 +11780,16 @@
         <v>72</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11835,22 +11839,22 @@
         <v>72</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>72</v>
@@ -11858,10 +11862,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11872,7 +11876,7 @@
         <v>73</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>72</v>
@@ -11884,16 +11888,16 @@
         <v>72</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -11943,22 +11947,22 @@
         <v>72</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>72</v>
@@ -11966,10 +11970,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11992,13 +11996,13 @@
         <v>72</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12049,7 +12053,7 @@
         <v>72</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>73</v>
@@ -12061,10 +12065,10 @@
         <v>72</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>72</v>
@@ -12072,10 +12076,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12086,7 +12090,7 @@
         <v>73</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>72</v>
@@ -12098,13 +12102,13 @@
         <v>72</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12155,13 +12159,13 @@
         <v>72</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>72</v>
@@ -12170,7 +12174,7 @@
         <v>72</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>72</v>
@@ -12178,14 +12182,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12204,16 +12208,16 @@
         <v>72</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -12263,7 +12267,7 @@
         <v>72</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>73</v>
@@ -12275,10 +12279,10 @@
         <v>72</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>72</v>
@@ -12286,14 +12290,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -12306,25 +12310,25 @@
         <v>72</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>72</v>
@@ -12373,7 +12377,7 @@
         <v>72</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>73</v>
@@ -12385,10 +12389,10 @@
         <v>72</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>72</v>
@@ -12396,10 +12400,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12407,10 +12411,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>72</v>
@@ -12422,13 +12426,13 @@
         <v>72</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12479,22 +12483,22 @@
         <v>72</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>72</v>
@@ -12502,10 +12506,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12516,7 +12520,7 @@
         <v>73</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>72</v>
@@ -12528,13 +12532,13 @@
         <v>72</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12585,22 +12589,22 @@
         <v>72</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -12608,10 +12612,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12622,7 +12626,7 @@
         <v>73</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>72</v>
@@ -12634,13 +12638,13 @@
         <v>72</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12691,22 +12695,22 @@
         <v>72</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>72</v>
@@ -12714,10 +12718,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12740,13 +12744,13 @@
         <v>72</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12797,7 +12801,7 @@
         <v>72</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>73</v>
@@ -12809,10 +12813,10 @@
         <v>72</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>72</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-HealthcareService.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-HealthcareService.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-HealthcareService.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-HealthcareService.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3467" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -344,7 +344,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -589,7 +589,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -614,937 +614,798 @@
     <t>Reference.identifier</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+no-basis-identifier-system:no-basis recommends the use of urn:oid:2.16.578.1.12.4.1.4.101 (ENH) or urn:oid:2.16.578.1.12.4.1.4.102 (RESH) for identifier.system {$this.exists(system = 'urn:oid:2.16.578.1.12.4.1.4.101' or system = 'urn:oid:2.16.578.1.12.4.1.4.102')}</t>
+  </si>
+  <si>
     <t>.identifier</t>
   </si>
   <si>
-    <t>HealthcareService.providedBy.identifier.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.providedBy.identifier.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.providedBy.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>HealthcareService.providedBy.identifier.type</t>
+    <t>HealthcareService.providedBy.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>HealthcareService.category</t>
+  </si>
+  <si>
+    <t>service category
+virksomhetstype</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>HealthcareService.providedBy.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-no-basis-identifier-system:no-basis recommends the use of urn:oid:2.16.578.1.12.4.1.4.101 (ENH) or urn:oid:2.16.578.1.12.4.1.4.102 (RESH) for identifier.system {$this.exists(value = 'urn:oid:2.16.578.1.12.4.1.4.101' or value = 'urn:oid:2.16.578.1.12.4.1.4.102')}</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>HealthcareService.providedBy.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>HealthcareService.providedBy.identifier.period</t>
+    <t>HealthcareService category</t>
+  </si>
+  <si>
+    <t>Example of category. Helsevirksomhet type (OID=9040), identifies the virksomhetstype used in Adresseregisteret. This element is usually not necessary to describe the HealthcareService adequately.</t>
+  </si>
+  <si>
+    <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>virksomhetstype 9040</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.9040</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>HealthcareService.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service type
+</t>
+  </si>
+  <si>
+    <t>Type of service that may be delivered or performed</t>
+  </si>
+  <si>
+    <t>no-basis: This element is usually not necessary to describe the HealthcareService adequately. Further coding can be used when common set of SNOMED codes are agreed for healthc care service types.
+The specific type of service that may be delivered or performed.</t>
+  </si>
+  <si>
+    <t>Additional details about where the content was created (e.g. clinical specialty).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
+  </si>
+  <si>
+    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helsehjelpsområde
+</t>
+  </si>
+  <si>
+    <t>Specialties handled by the HealthcareService</t>
+  </si>
+  <si>
+    <t>no-basis: Helsehjelpområde is given by the specialty element, preferred coding includes 8655 and 8654 codesystems. Type and category is usually not necessary to describe the HealthcareService adequately.
+The specific type defined in a codesystem allowed included in the valueset.</t>
+  </si>
+  <si>
+    <t>A specialty that a healthcare service may provide.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes|4.0.1</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Two possible codings are given for the type element</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8655</t>
+  </si>
+  <si>
+    <t>8655</t>
+  </si>
+  <si>
+    <t>Code describing the Helsehjelpområde</t>
+  </si>
+  <si>
+    <t>no-basis: Helsehjelpsområde (OID=8655) used to code the kind of clinical service the organization offers the patients through this HealthcareService
+Also use Klinisk/medisinsk service (OID=8654)?</t>
+  </si>
+  <si>
+    <t>Helsehjelpsområde</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.8655</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8655.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8655.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8655.system</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the 8655 codesystem</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8655.version</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8655.code</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8655.display</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8655.userSelected</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8654</t>
+  </si>
+  <si>
+    <t>8654</t>
+  </si>
+  <si>
+    <t>Klinisk/medisinsk service (OID=8654)</t>
+  </si>
+  <si>
+    <t>Klinisk/medisinsk service</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.8654</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8654.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8654.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8654.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8654.version</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8654.code</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8654.display</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8654.userSelected</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:9151</t>
+  </si>
+  <si>
+    <t>9151</t>
+  </si>
+  <si>
+    <t>IPLOS tjenestetype (OID=9151)</t>
+  </si>
+  <si>
+    <t>IPLOS tjenestetype</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.9151</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:9151.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:9151.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:9151.system</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:9151.version</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:9151.code</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:9151.display</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:9151.userSelected</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8451</t>
+  </si>
+  <si>
+    <t>8451</t>
+  </si>
+  <si>
+    <t>Fagområde (OID=8451)</t>
+  </si>
+  <si>
+    <t>Fagområde</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.8451</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8451.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8451.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8451.system</t>
+  </si>
+  <si>
+    <t>The identification of the Fagområde (OID=8451) code system.</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8451.version</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8451.code</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8451.display</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding:8451.userSelected</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>HealthcareService.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location|http://hl7.no/fhir/StructureDefinition/no-basis-Location)
+</t>
+  </si>
+  <si>
+    <t>Location(s) where service may be provided</t>
+  </si>
+  <si>
+    <t>The location(s) where this healthcare service may be provided.</t>
+  </si>
+  <si>
+    <t>.location.role[classCode=SDLOC]</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>HealthcareService.name</t>
+  </si>
+  <si>
+    <t>Description of service as presented to a consumer while searching</t>
+  </si>
+  <si>
+    <t>Further description of the service as it would be presented to a consumer while searching.</t>
+  </si>
+  <si>
+    <t>.name</t>
+  </si>
+  <si>
+    <t>HealthcareService.comment</t>
+  </si>
+  <si>
+    <t>Additional description and/or any specific issues not covered elsewhere</t>
+  </si>
+  <si>
+    <t>Any additional description of the service and/or any specific issues not covered by the other attributes, which can be displayed as further detail under the serviceName.</t>
+  </si>
+  <si>
+    <t>Would expect that a user would not see this information on a search results, and it would only be available when viewing the complete details of the service.</t>
+  </si>
+  <si>
+    <t>.location.role[classCode=SDLOC].desc</t>
+  </si>
+  <si>
+    <t>HealthcareService.extraDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>Extra details about the service that can't be placed in the other fields</t>
+  </si>
+  <si>
+    <t>Extra details about the service that can't be placed in the other fields.</t>
+  </si>
+  <si>
+    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].text</t>
+  </si>
+  <si>
+    <t>HealthcareService.photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
+</t>
+  </si>
+  <si>
+    <t>Facilitates quick identification of the service</t>
+  </si>
+  <si>
+    <t>If there is a photo/symbol associated with this HealthcareService, it may be included here to facilitate quick identification of the service in a list.</t>
+  </si>
+  <si>
+    <t>.actrelationship[typeCode=SBJ].observation.value</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>Contacts related to the healthcare service</t>
+  </si>
+  <si>
+    <t>List of contacts related to this specific healthcare service.</t>
+  </si>
+  <si>
+    <t>If this is empty, then refer to the location's contacts.</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>HealthcareService.coverageArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Location(s) service is intended for/available to</t>
+  </si>
+  <si>
+    <t>The location(s) that this service is available to (not where the service is provided).</t>
+  </si>
+  <si>
+    <t>The locations referenced by the coverage area can include both specific locations, including areas, and also conceptual domains too (mode = kind), such as a physical area (tri-state area) and some other attribute (covered by Example Care Organization). These types of Locations are often not managed by any specific organization. This could also include generic locations such as "in-home".</t>
+  </si>
+  <si>
+    <t>.location.role[classCode=SDLOC].subjectOf.A_SpatialCoordinate</t>
+  </si>
+  <si>
+    <t>HealthcareService.serviceProvisionCode</t>
+  </si>
+  <si>
+    <t>Conditions under which service is available/offered</t>
+  </si>
+  <si>
+    <t>The code(s) that detail the conditions under which the healthcare service is available/offered.</t>
+  </si>
+  <si>
+    <t>The provision means being commissioned by, contractually obliged or financially sourced. Types of costings that may apply to this healthcare service, such if the service may be available for free, some discounts available, or fees apply.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-provision-conditions|4.0.1</t>
+  </si>
+  <si>
+    <t>.actrelationship[typeCode=PRCN].observation[moodCode=EVN.CRT]</t>
+  </si>
+  <si>
+    <t>HealthcareService.eligibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Specific eligibility requirements required to use the service</t>
+  </si>
+  <si>
+    <t>Does this service have specific eligibility requirements that need to be met in order to use the service?</t>
+  </si>
+  <si>
+    <t>HealthcareService.eligibility.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.eligibility.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.eligibility.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>HealthcareService.eligibility.code</t>
+  </si>
+  <si>
+    <t>Coded value for the eligibility</t>
+  </si>
+  <si>
+    <t>Coded value for the eligibility.</t>
+  </si>
+  <si>
+    <t>Coded values underwhich a specific service is made available.</t>
+  </si>
+  <si>
+    <t>HealthcareService.eligibility.comment</t>
+  </si>
+  <si>
+    <t>Describes the eligibility conditions for the service</t>
+  </si>
+  <si>
+    <t>Describes the eligibility conditions for the service.</t>
+  </si>
+  <si>
+    <t>The description of service eligibility should, in general, not exceed one or two paragraphs. It should be sufficient for a prospective consumer to determine if they are likely to be eligible or not. Where eligibility requirements and conditions are complex, it may simply be noted that an eligibility assessment is required. Where eligibility is determined by an outside source, such as an Act of Parliament, this should be noted, preferably with a reference to a commonly available copy of the source document such as a web page.</t>
+  </si>
+  <si>
+    <t>.actrelationship[typeCode=PRCN].observation[moodCode=EVN.CRT].text</t>
+  </si>
+  <si>
+    <t>HealthcareService.program</t>
+  </si>
+  <si>
+    <t>Programs that this service is applicable to</t>
+  </si>
+  <si>
+    <t>Programs that this service is applicable to.</t>
+  </si>
+  <si>
+    <t>Programs are often defined externally to an Organization, commonly by governments; e.g. Home and Community Care Programs, Homeless Program, ….</t>
+  </si>
+  <si>
+    <t>Government or local programs that this service applies to.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/program|4.0.1</t>
+  </si>
+  <si>
+    <t>.actrelationship[typeCode=PERT].observation</t>
+  </si>
+  <si>
+    <t>HealthcareService.characteristic</t>
+  </si>
+  <si>
+    <t>Collection of characteristics (attributes)</t>
+  </si>
+  <si>
+    <t>Collection of characteristics (attributes).</t>
+  </si>
+  <si>
+    <t>These could be such things as is wheelchair accessible.</t>
+  </si>
+  <si>
+    <t>A custom attribute that could be provided at a service (e.g. Wheelchair accessibiliy).</t>
+  </si>
+  <si>
+    <t>HealthcareService.communication</t>
+  </si>
+  <si>
+    <t>The language that this service is offered in</t>
+  </si>
+  <si>
+    <t>Some services are specifically made available in multiple languages, this property permits a directory to declare the languages this is offered in. Typically this is only provided where a service operates in communities with mixed languages used.</t>
+  </si>
+  <si>
+    <t>When using this property it indicates that the service is available with this language, it is not derived from the practitioners, and not all are required to use this language, just that this language is available while scheduling.</t>
+  </si>
+  <si>
+    <t>HealthcareService.referralMethod</t>
+  </si>
+  <si>
+    <t>Ways that the service accepts referrals</t>
+  </si>
+  <si>
+    <t>Ways that the service accepts referrals, if this is not provided then it is implied that no referral is required.</t>
+  </si>
+  <si>
+    <t>The methods of referral can be used when referring to a specific HealthCareService resource.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-referral-method|4.0.1</t>
+  </si>
+  <si>
+    <t>HealthcareService.appointmentRequired</t>
+  </si>
+  <si>
+    <t>If an appointment is required for access to this service</t>
+  </si>
+  <si>
+    <t>Indicates whether or not a prospective consumer will require an appointment for a particular service at a site to be provided by the Organization. Indicates if an appointment is required for access to this service.</t>
+  </si>
+  <si>
+    <t>HealthcareService.availableTime</t>
+  </si>
+  <si>
+    <t>Times the Service Site is available</t>
+  </si>
+  <si>
+    <t>A collection of times that the Service Site is available.</t>
+  </si>
+  <si>
+    <t>More detailed availability information may be provided in associated Schedule/Slot resources.</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>HealthcareService.availableTime.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.availableTime.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.availableTime.modifierExtension</t>
+  </si>
+  <si>
+    <t>HealthcareService.availableTime.daysOfWeek</t>
+  </si>
+  <si>
+    <t>mon | tue | wed | thu | fri | sat | sun</t>
+  </si>
+  <si>
+    <t>Indicates which days of the week are available between the start and end Times.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The days of the week.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
+  </si>
+  <si>
+    <t>HealthcareService.availableTime.allDay</t>
+  </si>
+  <si>
+    <t>Always available? e.g. 24 hour service</t>
+  </si>
+  <si>
+    <t>Is this always available? (hence times are irrelevant) e.g. 24 hour service.</t>
+  </si>
+  <si>
+    <t>HealthcareService.availableTime.availableStartTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time
+</t>
+  </si>
+  <si>
+    <t>Opening time of day (ignored if allDay = true)</t>
+  </si>
+  <si>
+    <t>The opening time of day. Note: If the AllDay flag is set, then this time is ignored.</t>
+  </si>
+  <si>
+    <t>The time zone is expected to be for where this HealthcareService is provided at.</t>
+  </si>
+  <si>
+    <t>HealthcareService.availableTime.availableEndTime</t>
+  </si>
+  <si>
+    <t>Closing time of day (ignored if allDay = true)</t>
+  </si>
+  <si>
+    <t>The closing time of day. Note: If the AllDay flag is set, then this time is ignored.</t>
+  </si>
+  <si>
+    <t>HealthcareService.notAvailable</t>
+  </si>
+  <si>
+    <t>Not available during this time due to provided reason</t>
+  </si>
+  <si>
+    <t>The HealthcareService is not available during this period of time due to the provided reason.</t>
+  </si>
+  <si>
+    <t>HealthcareService.notAvailable.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.notAvailable.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.notAvailable.modifierExtension</t>
+  </si>
+  <si>
+    <t>HealthcareService.notAvailable.description</t>
+  </si>
+  <si>
+    <t>Reason presented to the user explaining why time not available</t>
+  </si>
+  <si>
+    <t>The reason that can be presented to the user as to why this time is not available.</t>
+  </si>
+  <si>
+    <t>HealthcareService.notAvailable.during</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>HealthcareService.providedBy.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>HealthcareService.providedBy.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>HealthcareService.category</t>
-  </si>
-  <si>
-    <t>service category
-virksomhetstype</t>
-  </si>
-  <si>
-    <t>HealthcareService category</t>
-  </si>
-  <si>
-    <t>Example of category. Helsevirksomhet type (OID=9040), identifies the virksomhetstype used in Adresseregisteret. This element is usually not necessary to describe the HealthcareService adequately.</t>
-  </si>
-  <si>
-    <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>virksomhetstype 9040</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.9040</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>HealthcareService.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service type
-</t>
-  </si>
-  <si>
-    <t>Type of service that may be delivered or performed</t>
-  </si>
-  <si>
-    <t>no-basis: This element is usually not necessary to describe the HealthcareService adequately. Further coding can be used when common set of SNOMED codes are agreed for healthc care service types.
-The specific type of service that may be delivered or performed.</t>
-  </si>
-  <si>
-    <t>Additional details about where the content was created (e.g. clinical specialty).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
-  </si>
-  <si>
-    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">helsehjelpsområde
-</t>
-  </si>
-  <si>
-    <t>Specialties handled by the HealthcareService</t>
-  </si>
-  <si>
-    <t>no-basis: Helsehjelpområde is given by the specialty element, preferred coding includes 8655 and 8654 codesystems. Type and category is usually not necessary to describe the HealthcareService adequately.
-The specific type defined in a codesystem allowed included in the valueset.</t>
-  </si>
-  <si>
-    <t>A specialty that a healthcare service may provide.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>Two possible codings are given for the type element</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8655</t>
-  </si>
-  <si>
-    <t>8655</t>
-  </si>
-  <si>
-    <t>Code describing the Helsehjelpområde</t>
-  </si>
-  <si>
-    <t>no-basis: Helsehjelpsområde (OID=8655) used to code the kind of clinical service the organization offers the patients through this HealthcareService
-Also use Klinisk/medisinsk service (OID=8654)?</t>
-  </si>
-  <si>
-    <t>Helsehjelpsområde</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.8655</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8655.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8655.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8655.system</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the 8655 codesystem</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8655.version</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8655.code</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8655.display</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8655.userSelected</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8654</t>
-  </si>
-  <si>
-    <t>8654</t>
-  </si>
-  <si>
-    <t>Klinisk/medisinsk service (OID=8654)</t>
-  </si>
-  <si>
-    <t>Klinisk/medisinsk service</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.8654</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8654.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8654.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8654.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8654.version</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8654.code</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8654.display</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8654.userSelected</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:9151</t>
-  </si>
-  <si>
-    <t>9151</t>
-  </si>
-  <si>
-    <t>IPLOS tjenestetype (OID=9151)</t>
-  </si>
-  <si>
-    <t>IPLOS tjenestetype</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.9151</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:9151.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:9151.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:9151.system</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:9151.version</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:9151.code</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:9151.display</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:9151.userSelected</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8451</t>
-  </si>
-  <si>
-    <t>8451</t>
-  </si>
-  <si>
-    <t>Fagområde (OID=8451)</t>
-  </si>
-  <si>
-    <t>Fagområde</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.8451</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8451.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8451.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8451.system</t>
-  </si>
-  <si>
-    <t>The identification of the Fagområde (OID=8451) code system.</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8451.version</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8451.code</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8451.display</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.coding:8451.userSelected</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>HealthcareService.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location|http://hl7.no/fhir/StructureDefinition/no-basis-Location)
-</t>
-  </si>
-  <si>
-    <t>Location(s) where service may be provided</t>
-  </si>
-  <si>
-    <t>The location(s) where this healthcare service may be provided.</t>
-  </si>
-  <si>
-    <t>.location.role[classCode=SDLOC]</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>HealthcareService.name</t>
-  </si>
-  <si>
-    <t>Description of service as presented to a consumer while searching</t>
-  </si>
-  <si>
-    <t>Further description of the service as it would be presented to a consumer while searching.</t>
-  </si>
-  <si>
-    <t>.name</t>
-  </si>
-  <si>
-    <t>HealthcareService.comment</t>
-  </si>
-  <si>
-    <t>Additional description and/or any specific issues not covered elsewhere</t>
-  </si>
-  <si>
-    <t>Any additional description of the service and/or any specific issues not covered by the other attributes, which can be displayed as further detail under the serviceName.</t>
-  </si>
-  <si>
-    <t>Would expect that a user would not see this information on a search results, and it would only be available when viewing the complete details of the service.</t>
-  </si>
-  <si>
-    <t>.location.role[classCode=SDLOC].desc</t>
-  </si>
-  <si>
-    <t>HealthcareService.extraDetails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>Extra details about the service that can't be placed in the other fields</t>
-  </si>
-  <si>
-    <t>Extra details about the service that can't be placed in the other fields.</t>
-  </si>
-  <si>
-    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].text</t>
-  </si>
-  <si>
-    <t>HealthcareService.photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attachment
-</t>
-  </si>
-  <si>
-    <t>Facilitates quick identification of the service</t>
-  </si>
-  <si>
-    <t>If there is a photo/symbol associated with this HealthcareService, it may be included here to facilitate quick identification of the service in a list.</t>
-  </si>
-  <si>
-    <t>.actrelationship[typeCode=SBJ].observation.value</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>Contacts related to the healthcare service</t>
-  </si>
-  <si>
-    <t>List of contacts related to this specific healthcare service.</t>
-  </si>
-  <si>
-    <t>If this is empty, then refer to the location's contacts.</t>
-  </si>
-  <si>
-    <t>.telecom</t>
-  </si>
-  <si>
-    <t>HealthcareService.coverageArea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Location(s) service is intended for/available to</t>
-  </si>
-  <si>
-    <t>The location(s) that this service is available to (not where the service is provided).</t>
-  </si>
-  <si>
-    <t>The locations referenced by the coverage area can include both specific locations, including areas, and also conceptual domains too (mode = kind), such as a physical area (tri-state area) and some other attribute (covered by Example Care Organization). These types of Locations are often not managed by any specific organization. This could also include generic locations such as "in-home".</t>
-  </si>
-  <si>
-    <t>.location.role[classCode=SDLOC].subjectOf.A_SpatialCoordinate</t>
-  </si>
-  <si>
-    <t>HealthcareService.serviceProvisionCode</t>
-  </si>
-  <si>
-    <t>Conditions under which service is available/offered</t>
-  </si>
-  <si>
-    <t>The code(s) that detail the conditions under which the healthcare service is available/offered.</t>
-  </si>
-  <si>
-    <t>The provision means being commissioned by, contractually obliged or financially sourced. Types of costings that may apply to this healthcare service, such if the service may be available for free, some discounts available, or fees apply.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-provision-conditions</t>
-  </si>
-  <si>
-    <t>.actrelationship[typeCode=PRCN].observation[moodCode=EVN.CRT]</t>
-  </si>
-  <si>
-    <t>HealthcareService.eligibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Specific eligibility requirements required to use the service</t>
-  </si>
-  <si>
-    <t>Does this service have specific eligibility requirements that need to be met in order to use the service?</t>
-  </si>
-  <si>
-    <t>HealthcareService.eligibility.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.eligibility.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.eligibility.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>HealthcareService.eligibility.code</t>
-  </si>
-  <si>
-    <t>Coded value for the eligibility</t>
-  </si>
-  <si>
-    <t>Coded value for the eligibility.</t>
-  </si>
-  <si>
-    <t>Coded values underwhich a specific service is made available.</t>
-  </si>
-  <si>
-    <t>HealthcareService.eligibility.comment</t>
-  </si>
-  <si>
-    <t>Describes the eligibility conditions for the service</t>
-  </si>
-  <si>
-    <t>Describes the eligibility conditions for the service.</t>
-  </si>
-  <si>
-    <t>The description of service eligibility should, in general, not exceed one or two paragraphs. It should be sufficient for a prospective consumer to determine if they are likely to be eligible or not. Where eligibility requirements and conditions are complex, it may simply be noted that an eligibility assessment is required. Where eligibility is determined by an outside source, such as an Act of Parliament, this should be noted, preferably with a reference to a commonly available copy of the source document such as a web page.</t>
-  </si>
-  <si>
-    <t>.actrelationship[typeCode=PRCN].observation[moodCode=EVN.CRT].text</t>
-  </si>
-  <si>
-    <t>HealthcareService.program</t>
-  </si>
-  <si>
-    <t>Programs that this service is applicable to</t>
-  </si>
-  <si>
-    <t>Programs that this service is applicable to.</t>
-  </si>
-  <si>
-    <t>Programs are often defined externally to an Organization, commonly by governments; e.g. Home and Community Care Programs, Homeless Program, ….</t>
-  </si>
-  <si>
-    <t>Government or local programs that this service applies to.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/program</t>
-  </si>
-  <si>
-    <t>.actrelationship[typeCode=PERT].observation</t>
-  </si>
-  <si>
-    <t>HealthcareService.characteristic</t>
-  </si>
-  <si>
-    <t>Collection of characteristics (attributes)</t>
-  </si>
-  <si>
-    <t>Collection of characteristics (attributes).</t>
-  </si>
-  <si>
-    <t>These could be such things as is wheelchair accessible.</t>
-  </si>
-  <si>
-    <t>A custom attribute that could be provided at a service (e.g. Wheelchair accessibiliy).</t>
-  </si>
-  <si>
-    <t>HealthcareService.communication</t>
-  </si>
-  <si>
-    <t>The language that this service is offered in</t>
-  </si>
-  <si>
-    <t>Some services are specifically made available in multiple languages, this property permits a directory to declare the languages this is offered in. Typically this is only provided where a service operates in communities with mixed languages used.</t>
-  </si>
-  <si>
-    <t>When using this property it indicates that the service is available with this language, it is not derived from the practitioners, and not all are required to use this language, just that this language is available while scheduling.</t>
-  </si>
-  <si>
-    <t>HealthcareService.referralMethod</t>
-  </si>
-  <si>
-    <t>Ways that the service accepts referrals</t>
-  </si>
-  <si>
-    <t>Ways that the service accepts referrals, if this is not provided then it is implied that no referral is required.</t>
-  </si>
-  <si>
-    <t>The methods of referral can be used when referring to a specific HealthCareService resource.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-referral-method</t>
-  </si>
-  <si>
-    <t>HealthcareService.appointmentRequired</t>
-  </si>
-  <si>
-    <t>If an appointment is required for access to this service</t>
-  </si>
-  <si>
-    <t>Indicates whether or not a prospective consumer will require an appointment for a particular service at a site to be provided by the Organization. Indicates if an appointment is required for access to this service.</t>
-  </si>
-  <si>
-    <t>HealthcareService.availableTime</t>
-  </si>
-  <si>
-    <t>Times the Service Site is available</t>
-  </si>
-  <si>
-    <t>A collection of times that the Service Site is available.</t>
-  </si>
-  <si>
-    <t>More detailed availability information may be provided in associated Schedule/Slot resources.</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>HealthcareService.availableTime.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.availableTime.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.availableTime.modifierExtension</t>
-  </si>
-  <si>
-    <t>HealthcareService.availableTime.daysOfWeek</t>
-  </si>
-  <si>
-    <t>mon | tue | wed | thu | fri | sat | sun</t>
-  </si>
-  <si>
-    <t>Indicates which days of the week are available between the start and end Times.</t>
-  </si>
-  <si>
-    <t>The days of the week.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
-  </si>
-  <si>
-    <t>HealthcareService.availableTime.allDay</t>
-  </si>
-  <si>
-    <t>Always available? e.g. 24 hour service</t>
-  </si>
-  <si>
-    <t>Is this always available? (hence times are irrelevant) e.g. 24 hour service.</t>
-  </si>
-  <si>
-    <t>HealthcareService.availableTime.availableStartTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time
-</t>
-  </si>
-  <si>
-    <t>Opening time of day (ignored if allDay = true)</t>
-  </si>
-  <si>
-    <t>The opening time of day. Note: If the AllDay flag is set, then this time is ignored.</t>
-  </si>
-  <si>
-    <t>The time zone is expected to be for where this HealthcareService is provided at.</t>
-  </si>
-  <si>
-    <t>HealthcareService.availableTime.availableEndTime</t>
-  </si>
-  <si>
-    <t>Closing time of day (ignored if allDay = true)</t>
-  </si>
-  <si>
-    <t>The closing time of day. Note: If the AllDay flag is set, then this time is ignored.</t>
-  </si>
-  <si>
-    <t>HealthcareService.notAvailable</t>
-  </si>
-  <si>
-    <t>Not available during this time due to provided reason</t>
-  </si>
-  <si>
-    <t>The HealthcareService is not available during this period of time due to the provided reason.</t>
-  </si>
-  <si>
-    <t>HealthcareService.notAvailable.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.notAvailable.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.notAvailable.modifierExtension</t>
-  </si>
-  <si>
-    <t>HealthcareService.notAvailable.description</t>
-  </si>
-  <si>
-    <t>Reason presented to the user explaining why time not available</t>
-  </si>
-  <si>
-    <t>The reason that can be presented to the user as to why this time is not available.</t>
-  </si>
-  <si>
-    <t>HealthcareService.notAvailable.during</t>
   </si>
   <si>
     <t>Service not available from this date</t>
@@ -1868,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL101"/>
+  <dimension ref="A1:AL93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1877,17 +1738,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.16015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.95703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.83203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1896,24 +1757,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.93359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="49.2734375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="49.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.7578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.0546875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.24609375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="42.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="62.17578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3855,10 +3716,10 @@
         <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>72</v>
@@ -3866,10 +3727,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3889,18 +3750,20 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>72</v>
@@ -3949,7 +3812,7 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -3961,10 +3824,10 @@
         <v>72</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>72</v>
@@ -3972,14 +3835,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3995,19 +3858,19 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4033,31 +3896,31 @@
         <v>72</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -4069,57 +3932,53 @@
         <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>72</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>72</v>
       </c>
@@ -4143,13 +4002,13 @@
         <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>72</v>
@@ -4167,13 +4026,13 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
@@ -4182,7 +4041,7 @@
         <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>72</v>
@@ -4190,21 +4049,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>72</v>
@@ -4216,20 +4075,16 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>72</v>
       </c>
@@ -4253,13 +4108,13 @@
         <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>72</v>
@@ -4277,13 +4132,13 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>72</v>
@@ -4292,7 +4147,7 @@
         <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>72</v>
@@ -4300,10 +4155,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4323,23 +4178,19 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>72</v>
       </c>
@@ -4351,7 +4202,7 @@
         <v>72</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>72</v>
@@ -4387,7 +4238,7 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -4399,10 +4250,10 @@
         <v>72</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>72</v>
@@ -4410,21 +4261,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -4433,19 +4284,19 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4459,7 +4310,7 @@
         <v>72</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>225</v>
+        <v>72</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>72</v>
@@ -4483,34 +4334,34 @@
         <v>72</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>72</v>
@@ -4518,10 +4369,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4532,7 +4383,7 @@
         <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -4544,16 +4395,20 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>72</v>
       </c>
@@ -4589,25 +4444,25 @@
         <v>72</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>72</v>
+        <v>229</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>72</v>
@@ -4616,7 +4471,7 @@
         <v>93</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>72</v>
@@ -4624,12 +4479,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="B26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>72</v>
       </c>
@@ -4638,7 +4495,7 @@
         <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
@@ -4650,18 +4507,20 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="N26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>72</v>
       </c>
@@ -4685,13 +4544,13 @@
         <v>72</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>72</v>
+        <v>238</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>72</v>
@@ -4709,13 +4568,13 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>72</v>
@@ -4724,7 +4583,7 @@
         <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>72</v>
@@ -4732,10 +4591,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4755,20 +4614,18 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>160</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
+        <v>161</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>72</v>
@@ -4817,7 +4674,7 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -4829,10 +4686,10 @@
         <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>72</v>
@@ -4840,14 +4697,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>247</v>
+        <v>126</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4863,19 +4720,19 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>128</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4901,31 +4758,31 @@
         <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>252</v>
+        <v>72</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>253</v>
+        <v>72</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -4937,32 +4794,32 @@
         <v>72</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>255</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>257</v>
+        <v>72</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
@@ -4974,22 +4831,26 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>72</v>
+        <v>238</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>72</v>
@@ -5007,13 +4868,13 @@
         <v>72</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>260</v>
+        <v>72</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>261</v>
+        <v>72</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>72</v>
@@ -5031,13 +4892,13 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>72</v>
@@ -5046,7 +4907,7 @@
         <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -5054,21 +4915,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>264</v>
+        <v>72</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>72</v>
@@ -5080,15 +4941,17 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>72</v>
@@ -5113,13 +4976,13 @@
         <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>268</v>
+        <v>72</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>72</v>
@@ -5137,13 +5000,13 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>72</v>
@@ -5152,7 +5015,7 @@
         <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>72</v>
@@ -5160,10 +5023,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5171,7 +5034,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
@@ -5183,19 +5046,21 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>72</v>
       </c>
@@ -5243,7 +5108,7 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -5255,10 +5120,10 @@
         <v>72</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>72</v>
@@ -5266,21 +5131,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -5289,21 +5154,21 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>72</v>
       </c>
@@ -5339,34 +5204,34 @@
         <v>72</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>72</v>
@@ -5374,10 +5239,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5388,7 +5253,7 @@
         <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>72</v>
@@ -5400,19 +5265,19 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>72</v>
@@ -5449,25 +5314,25 @@
         <v>72</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>277</v>
+        <v>72</v>
       </c>
       <c r="AC33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AD33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>72</v>
@@ -5476,7 +5341,7 @@
         <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -5484,13 +5349,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C34" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>72</v>
@@ -5512,19 +5377,19 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>72</v>
@@ -5552,10 +5417,10 @@
         <v>105</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>72</v>
@@ -5573,7 +5438,7 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -5588,7 +5453,7 @@
         <v>93</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -5596,10 +5461,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5702,10 +5567,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5810,10 +5675,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5839,23 +5704,23 @@
         <v>95</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>72</v>
@@ -5897,7 +5762,7 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
@@ -5912,7 +5777,7 @@
         <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -5920,10 +5785,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5949,13 +5814,13 @@
         <v>160</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6005,7 +5870,7 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -6020,7 +5885,7 @@
         <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -6028,10 +5893,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6057,14 +5922,14 @@
         <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>72</v>
@@ -6113,7 +5978,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -6128,7 +5993,7 @@
         <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6136,10 +6001,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6165,14 +6030,14 @@
         <v>160</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>72</v>
@@ -6221,7 +6086,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -6236,7 +6101,7 @@
         <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6244,10 +6109,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6273,16 +6138,16 @@
         <v>145</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>72</v>
@@ -6331,7 +6196,7 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -6346,7 +6211,7 @@
         <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6354,13 +6219,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>72</v>
@@ -6382,19 +6247,19 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>72</v>
@@ -6422,10 +6287,10 @@
         <v>105</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>72</v>
@@ -6443,7 +6308,7 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -6458,7 +6323,7 @@
         <v>93</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6466,10 +6331,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6572,10 +6437,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6680,10 +6545,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6709,23 +6574,23 @@
         <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>72</v>
@@ -6767,7 +6632,7 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
@@ -6782,7 +6647,7 @@
         <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>72</v>
@@ -6790,10 +6655,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6819,13 +6684,13 @@
         <v>160</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6875,7 +6740,7 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
@@ -6890,7 +6755,7 @@
         <v>93</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>72</v>
@@ -6898,10 +6763,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6927,14 +6792,14 @@
         <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>72</v>
@@ -6983,7 +6848,7 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -6998,7 +6863,7 @@
         <v>93</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -7006,10 +6871,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7035,14 +6900,14 @@
         <v>160</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>72</v>
@@ -7091,7 +6956,7 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
@@ -7106,7 +6971,7 @@
         <v>93</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -7114,10 +6979,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7143,16 +7008,16 @@
         <v>145</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>72</v>
@@ -7201,7 +7066,7 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -7216,7 +7081,7 @@
         <v>93</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7224,13 +7089,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>72</v>
@@ -7252,19 +7117,19 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>72</v>
@@ -7292,10 +7157,10 @@
         <v>105</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>72</v>
@@ -7313,7 +7178,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -7328,7 +7193,7 @@
         <v>93</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7336,10 +7201,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7442,10 +7307,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7550,10 +7415,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7579,23 +7444,23 @@
         <v>95</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>72</v>
@@ -7637,7 +7502,7 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
@@ -7652,7 +7517,7 @@
         <v>93</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
@@ -7660,10 +7525,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7689,13 +7554,13 @@
         <v>160</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7745,7 +7610,7 @@
         <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>73</v>
@@ -7760,7 +7625,7 @@
         <v>93</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>72</v>
@@ -7768,10 +7633,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7797,14 +7662,14 @@
         <v>101</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>72</v>
@@ -7853,7 +7718,7 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
@@ -7868,7 +7733,7 @@
         <v>93</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -7876,10 +7741,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7905,14 +7770,14 @@
         <v>160</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>72</v>
@@ -7961,7 +7826,7 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
@@ -7976,7 +7841,7 @@
         <v>93</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
@@ -7984,10 +7849,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8013,16 +7878,16 @@
         <v>145</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>72</v>
@@ -8071,7 +7936,7 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
@@ -8086,7 +7951,7 @@
         <v>93</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
@@ -8094,14 +7959,12 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>72</v>
       </c>
@@ -8110,7 +7973,7 @@
         <v>73</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>72</v>
@@ -8122,19 +7985,19 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>272</v>
+        <v>160</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>72</v>
@@ -8159,13 +8022,13 @@
         <v>72</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>356</v>
+        <v>72</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>357</v>
+        <v>72</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>72</v>
@@ -8183,13 +8046,13 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>72</v>
@@ -8198,7 +8061,7 @@
         <v>93</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
@@ -8206,10 +8069,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8220,7 +8083,7 @@
         <v>73</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>72</v>
@@ -8229,16 +8092,16 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>162</v>
+        <v>328</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8289,44 +8152,44 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>164</v>
+        <v>329</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>72</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>72</v>
@@ -8335,20 +8198,18 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>72</v>
@@ -8385,34 +8246,34 @@
         <v>72</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>170</v>
+        <v>331</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>164</v>
+        <v>334</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -8420,10 +8281,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8431,7 +8292,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>81</v>
@@ -8446,26 +8307,24 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>336</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>357</v>
+        <v>72</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>72</v>
@@ -8507,7 +8366,7 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
@@ -8522,7 +8381,7 @@
         <v>93</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -8530,10 +8389,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8553,20 +8412,18 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>160</v>
+        <v>341</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>72</v>
@@ -8615,7 +8472,7 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
@@ -8630,7 +8487,7 @@
         <v>93</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -8638,10 +8495,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8649,7 +8506,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>81</v>
@@ -8664,18 +8521,16 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>101</v>
+        <v>346</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>310</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>72</v>
       </c>
@@ -8723,7 +8578,7 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
@@ -8738,7 +8593,7 @@
         <v>93</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -8746,10 +8601,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8760,7 +8615,7 @@
         <v>73</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>72</v>
@@ -8769,21 +8624,21 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>160</v>
+        <v>351</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>72</v>
       </c>
@@ -8831,13 +8686,13 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>72</v>
@@ -8846,7 +8701,7 @@
         <v>93</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -8854,10 +8709,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8868,7 +8723,7 @@
         <v>73</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>72</v>
@@ -8877,23 +8732,21 @@
         <v>72</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>145</v>
+        <v>357</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>72</v>
       </c>
@@ -8941,13 +8794,13 @@
         <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>72</v>
@@ -8956,7 +8809,7 @@
         <v>93</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
@@ -8964,10 +8817,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8978,7 +8831,7 @@
         <v>73</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>72</v>
@@ -8987,23 +8840,21 @@
         <v>72</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>72</v>
       </c>
@@ -9027,13 +8878,13 @@
         <v>72</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>72</v>
+        <v>364</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>72</v>
+        <v>366</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>72</v>
@@ -9051,13 +8902,13 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>72</v>
@@ -9066,7 +8917,7 @@
         <v>93</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -9074,10 +8925,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9097,16 +8948,16 @@
         <v>72</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9157,7 +9008,7 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
@@ -9172,18 +9023,18 @@
         <v>93</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>377</v>
+        <v>72</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>378</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9203,16 +9054,16 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>160</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>380</v>
+        <v>161</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>381</v>
+        <v>162</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9263,7 +9114,7 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>379</v>
+        <v>163</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>73</v>
@@ -9275,10 +9126,10 @@
         <v>72</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>382</v>
+        <v>164</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>72</v>
@@ -9286,21 +9137,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>72</v>
@@ -9309,19 +9160,19 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>384</v>
+        <v>128</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>385</v>
+        <v>166</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>386</v>
+        <v>130</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9371,22 +9222,22 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>383</v>
+        <v>170</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>387</v>
+        <v>164</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>72</v>
@@ -9394,42 +9245,46 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>389</v>
+        <v>127</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>72</v>
       </c>
@@ -9477,22 +9332,22 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>392</v>
+        <v>124</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -9500,10 +9355,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9523,16 +9378,16 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>394</v>
+        <v>199</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9559,10 +9414,10 @@
         <v>72</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>72</v>
+        <v>382</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>72</v>
@@ -9583,7 +9438,7 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
@@ -9598,7 +9453,7 @@
         <v>93</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -9606,10 +9461,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9620,7 +9475,7 @@
         <v>73</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>72</v>
@@ -9632,16 +9487,16 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9691,13 +9546,13 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>72</v>
@@ -9706,7 +9561,7 @@
         <v>93</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
@@ -9714,10 +9569,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9740,16 +9595,16 @@
         <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>405</v>
+        <v>199</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9775,13 +9630,13 @@
         <v>72</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>72</v>
+        <v>392</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>72</v>
+        <v>393</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>72</v>
@@ -9799,7 +9654,7 @@
         <v>72</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
@@ -9814,7 +9669,7 @@
         <v>93</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
@@ -9822,10 +9677,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9848,16 +9703,16 @@
         <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9883,13 +9738,13 @@
         <v>72</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>414</v>
+        <v>72</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>72</v>
@@ -9907,7 +9762,7 @@
         <v>72</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>73</v>
@@ -9922,7 +9777,7 @@
         <v>93</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
@@ -9930,10 +9785,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9956,15 +9811,17 @@
         <v>72</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>417</v>
+        <v>199</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>72</v>
@@ -9989,13 +9846,13 @@
         <v>72</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>72</v>
@@ -10013,7 +9870,7 @@
         <v>72</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>73</v>
@@ -10036,10 +9893,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10050,7 +9907,7 @@
         <v>73</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>72</v>
@@ -10062,13 +9919,13 @@
         <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>161</v>
+        <v>405</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>162</v>
+        <v>406</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10095,13 +9952,13 @@
         <v>72</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>72</v>
+        <v>407</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>72</v>
+        <v>408</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>72</v>
@@ -10119,22 +9976,22 @@
         <v>72</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>163</v>
+        <v>404</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>164</v>
+        <v>394</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10142,21 +9999,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>72</v>
@@ -10168,17 +10025,15 @@
         <v>72</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>128</v>
+        <v>410</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>72</v>
@@ -10227,22 +10082,22 @@
         <v>72</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>170</v>
+        <v>409</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>164</v>
+        <v>394</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>72</v>
@@ -10250,14 +10105,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>423</v>
+        <v>72</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10270,26 +10125,24 @@
         <v>72</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>127</v>
+        <v>369</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>72</v>
       </c>
@@ -10337,7 +10190,7 @@
         <v>72</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>73</v>
@@ -10349,10 +10202,10 @@
         <v>72</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>124</v>
+        <v>416</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>72</v>
@@ -10360,10 +10213,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10386,13 +10239,13 @@
         <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>428</v>
+        <v>161</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>429</v>
+        <v>162</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10419,10 +10272,10 @@
         <v>72</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>430</v>
+        <v>72</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>72</v>
@@ -10443,7 +10296,7 @@
         <v>72</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>427</v>
+        <v>163</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>73</v>
@@ -10455,10 +10308,10 @@
         <v>72</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>415</v>
+        <v>164</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>72</v>
@@ -10466,21 +10319,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>72</v>
@@ -10492,16 +10345,16 @@
         <v>72</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>389</v>
+        <v>127</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>432</v>
+        <v>128</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>433</v>
+        <v>166</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>434</v>
+        <v>130</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10551,22 +10404,22 @@
         <v>72</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>431</v>
+        <v>170</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>435</v>
+        <v>164</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>72</v>
@@ -10574,14 +10427,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -10594,24 +10447,26 @@
         <v>72</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>438</v>
+        <v>377</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>72</v>
       </c>
@@ -10635,13 +10490,13 @@
         <v>72</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>440</v>
+        <v>72</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>441</v>
+        <v>72</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>72</v>
@@ -10659,7 +10514,7 @@
         <v>72</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>436</v>
+        <v>378</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>73</v>
@@ -10671,10 +10526,10 @@
         <v>72</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>442</v>
+        <v>124</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>72</v>
@@ -10682,10 +10537,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10708,17 +10563,15 @@
         <v>72</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>72</v>
@@ -10743,13 +10596,13 @@
         <v>72</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>251</v>
+        <v>423</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>72</v>
+        <v>425</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>72</v>
@@ -10767,7 +10620,7 @@
         <v>72</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>73</v>
@@ -10782,7 +10635,7 @@
         <v>93</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>72</v>
@@ -10790,10 +10643,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10804,7 +10657,7 @@
         <v>73</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>72</v>
@@ -10816,17 +10669,15 @@
         <v>72</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>72</v>
@@ -10851,13 +10702,13 @@
         <v>72</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>72</v>
@@ -10875,13 +10726,13 @@
         <v>72</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>72</v>
@@ -10890,7 +10741,7 @@
         <v>93</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>72</v>
+        <v>416</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -10898,10 +10749,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10912,7 +10763,7 @@
         <v>73</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>72</v>
@@ -10924,15 +10775,17 @@
         <v>72</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>72</v>
@@ -10957,13 +10810,13 @@
         <v>72</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>455</v>
+        <v>72</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>456</v>
+        <v>72</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>72</v>
@@ -10981,13 +10834,13 @@
         <v>72</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>72</v>
@@ -10996,7 +10849,7 @@
         <v>93</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -11004,10 +10857,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11030,15 +10883,17 @@
         <v>72</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>145</v>
+        <v>430</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>72</v>
@@ -11087,7 +10942,7 @@
         <v>72</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>73</v>
@@ -11102,7 +10957,7 @@
         <v>93</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>72</v>
@@ -11110,10 +10965,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11136,17 +10991,15 @@
         <v>72</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>72</v>
@@ -11195,7 +11048,7 @@
         <v>72</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>73</v>
@@ -11210,7 +11063,7 @@
         <v>93</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -11218,10 +11071,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11324,10 +11177,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11432,14 +11285,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11461,10 +11314,10 @@
         <v>127</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>130</v>
@@ -11519,7 +11372,7 @@
         <v>72</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>73</v>
@@ -11542,10 +11395,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11553,10 +11406,10 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>72</v>
@@ -11568,13 +11421,13 @@
         <v>72</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11601,13 +11454,13 @@
         <v>72</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>471</v>
+        <v>72</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>472</v>
+        <v>72</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>72</v>
@@ -11625,13 +11478,13 @@
         <v>72</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>72</v>
@@ -11640,7 +11493,7 @@
         <v>93</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>464</v>
+        <v>164</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>72</v>
@@ -11648,10 +11501,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11674,13 +11527,13 @@
         <v>72</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>145</v>
+        <v>447</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11731,7 +11584,7 @@
         <v>72</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>73</v>
@@ -11746,7 +11599,7 @@
         <v>93</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>72</v>
@@ -11754,10 +11607,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11780,17 +11633,15 @@
         <v>72</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>477</v>
+        <v>160</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>72</v>
@@ -11839,7 +11690,7 @@
         <v>72</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>73</v>
@@ -11854,7 +11705,7 @@
         <v>93</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>72</v>
@@ -11862,10 +11713,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11876,7 +11727,7 @@
         <v>73</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>72</v>
@@ -11888,17 +11739,15 @@
         <v>72</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>72</v>
@@ -11947,13 +11796,13 @@
         <v>72</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>72</v>
@@ -11962,863 +11811,9 @@
         <v>93</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>464</v>
+        <v>164</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL101" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-HealthcareService.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-HealthcareService.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-HealthcareService</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-HealthcareService</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -492,7 +492,7 @@
     <t>HealthcareService.providedBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
+    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/ig/StructureDefinition/no-basis-Organization)
 </t>
   </si>
   <si>
@@ -1032,7 +1032,7 @@
     <t>HealthcareService.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|http://hl7.no/fhir/StructureDefinition/no-basis-Location)
+    <t xml:space="preserve">Reference(Location|http://hl7.no/fhir/ig/StructureDefinition/no-basis-Location)
 </t>
   </si>
   <si>
@@ -1426,7 +1426,7 @@
     <t>HealthcareService.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint|http://hl7.no/fhir/StructureDefinition/no-basis-Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|http://hl7.no/fhir/ig/StructureDefinition/no-basis-Endpoint)
 </t>
   </si>
   <si>
@@ -1748,7 +1748,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.83203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
